--- a/app/aux_data/base_pesos.xlsx
+++ b/app/aux_data/base_pesos.xlsx
@@ -1875,13 +1875,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2276,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="3" t="s">
         <v>55</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="3" t="s">
         <v>55</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="3" t="s">
         <v>55</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="3" t="s">
         <v>55</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="3" t="s">
         <v>55</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="3" t="s">
         <v>55</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="3" t="s">
         <v>55</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="3" t="s">
         <v>55</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="3" t="s">
         <v>55</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="3" t="s">
         <v>55</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="3" t="s">
         <v>55</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="3" t="s">
         <v>55</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="3" t="s">
         <v>55</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="3" t="s">
         <v>55</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="3" t="s">
         <v>55</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="3" t="s">
         <v>55</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="3" t="s">
         <v>55</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="3" t="s">
         <v>55</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="3" t="s">
         <v>55</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="3" t="s">
         <v>55</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="3" t="s">
         <v>55</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="3" t="s">
         <v>55</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="3" t="s">
         <v>55</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="3" t="s">
         <v>55</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="3" t="s">
         <v>55</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="3" t="s">
         <v>57</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="3" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="3" t="s">
         <v>57</v>
       </c>
